--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -95,7 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,7 +103,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +124,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -155,16 +162,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,16 +185,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,28 +217,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +252,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -270,13 +294,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,25 +414,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,145 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,60 +485,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,7 +507,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,11 +564,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,171 +605,180 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,8 +842,8 @@
       <color rgb="0097C890"/>
       <color rgb="00DAB5AC"/>
       <color rgb="00FF8810"/>
+      <color rgb="002982A2"/>
       <color rgb="00E2CBC5"/>
-      <color rgb="002982A2"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1094,244 +1115,251 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:O3"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="7" width="8.88888888888889" style="1"/>
+    <col min="8" max="8" width="8.88888888888889" style="2"/>
+    <col min="9" max="15" width="8.88888888888889" style="3"/>
+    <col min="16" max="17" width="8.88888888888889" style="4"/>
+    <col min="18" max="24" width="8.88888888888889" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -84,48 +84,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,7 +108,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +137,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -162,6 +175,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -169,32 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,29 +227,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,12 +243,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDAB5AC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -261,7 +255,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAAB99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,13 +297,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,163 +417,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,32 +449,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,13 +499,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,15 +546,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,171 +566,165 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,10 +788,10 @@
       <color rgb="00DCBAAE"/>
       <color rgb="00C78B81"/>
       <color rgb="00D39E90"/>
-      <color rgb="00DAB5AC"/>
       <color rgb="00DAAB99"/>
       <color rgb="00B55E54"/>
       <color rgb="00BF8382"/>
+      <color rgb="00DAB5AC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1081,165 +1063,164 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="24" width="8.88888888888889" style="1"/>
-    <col min="25" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="8"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="I3" s="11" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="8"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="I5" s="11" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="8">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7">
         <v>2018.11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="8:8">
-      <c r="H10" s="9"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
